--- a/uploads/students_info.xlsx
+++ b/uploads/students_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF08FCB6-EFED-499B-B573-61EE362FFD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988C92EE-44D9-4F06-83F6-7AB683627F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,18 +35,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>註冊狀況</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學生屬性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>註冊狀況(只能填在學、休學、退學)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生屬性(只能填本系、外系、外校)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
     <t>在學</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,15 +76,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>測試</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">s10350136 </t>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,8 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -389,18 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,30 +425,115 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/students_info.xlsx
+++ b/uploads/students_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988C92EE-44D9-4F06-83F6-7AB683627F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C9C002-CB68-4B56-AB9C-AF2112047480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,7 +56,6 @@
   </si>
   <si>
     <t>test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test4</t>
@@ -66,6 +65,12 @@
   </si>
   <si>
     <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
   </si>
   <si>
     <t>在學</t>
@@ -120,11 +125,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -405,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -435,105 +437,139 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/students_info.xlsx
+++ b/uploads/students_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C9C002-CB68-4B56-AB9C-AF2112047480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58408E6-3098-4748-A463-C75208CE914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,42 +47,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在學</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -407,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -441,135 +417,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
